--- a/src/Red_Tilapia Distribution_Data.xlsx
+++ b/src/Red_Tilapia Distribution_Data.xlsx
@@ -4083,7 +4083,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>46593.0</v>
+        <v>45132.0</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>126</v>
